--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247A1AE-35D9-4A02-A252-7CC93A3AD9EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9BB9D-184E-4251-8A13-7C911B178732}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="15" windowWidth="13815" windowHeight="14370" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t xml:space="preserve">Erste Überlegungen Rollenhandling Angular (Frontend) </t>
+  </si>
+  <si>
+    <t>Xamarain -XCODE -MAC OSX Vm</t>
+  </si>
+  <si>
+    <t>Recherche Webapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche Xamarin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorials in Xamarin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probleme mit Vm </t>
   </si>
 </sst>
 </file>
@@ -133,11 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,49 +611,49 @@
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>1.5</v>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
       <c r="C30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="3">
-        <f>SUM(C27:C34)</f>
-        <v>19.5</v>
+      <c r="C32" s="3">
+        <f>SUM(C27:C31)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9BB9D-184E-4251-8A13-7C911B178732}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B99736-AC6C-4946-B1ED-AA52F9CACA06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t xml:space="preserve">Probleme mit Vm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB am Server </t>
+  </si>
+  <si>
+    <t>Implementierung von der Zeitverwaltung im Frontend</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Camp und Mitarbeiterverwaltung</t>
+  </si>
+  <si>
+    <t>MongoDB aufsetzten und anlegen der User</t>
+  </si>
+  <si>
+    <t>Implementierung der Zeitverwalutng in der App</t>
+  </si>
+  <si>
+    <t>Bugfixing und  Probleme mit der Nav-Bar</t>
   </si>
 </sst>
 </file>
@@ -468,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,9 +535,25 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="3">
-        <f>SUM(C2:C4)</f>
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <f>SUM(C2:C6)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -561,50 +595,82 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
       <c r="C15">
-        <f>SUM(C11:C14)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <f>SUM(C11:C16)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f>SUM(C18:C24)</f>
-        <v>14</v>
+      <c r="C25" s="3">
+        <f>SUM(C19:C24)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,9 +717,25 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="3">
-        <f>SUM(C27:C31)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <f>SUM(C27:C33)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B99736-AC6C-4946-B1ED-AA52F9CACA06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600A74F5-7650-4B2D-8580-3878368432FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -115,6 +117,33 @@
   </si>
   <si>
     <t>Bugfixing und  Probleme mit der Nav-Bar</t>
+  </si>
+  <si>
+    <t>Neuaufbau der App --&gt; Systemarchitektur war nicht brauchbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navbar </t>
+  </si>
+  <si>
+    <t>Datenbankanbindung</t>
+  </si>
+  <si>
+    <t>Anlgegen von Arbeitzeiten mit Parsen etc.</t>
+  </si>
+  <si>
+    <t>Anzeigen von Arbeitszeiten und Filternung</t>
+  </si>
+  <si>
+    <t>Login mit Google</t>
+  </si>
+  <si>
+    <t>Anzeigen des Profils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzeigen von Files </t>
+  </si>
+  <si>
+    <t>Verschönerung des gesamten Projekts</t>
   </si>
 </sst>
 </file>
@@ -486,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,9 +762,81 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
       <c r="C34" s="3">
-        <f>SUM(C27:C33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>35</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <f>SUM(C27:C42)</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600A74F5-7650-4B2D-8580-3878368432FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A23044-AAFE-497E-8A97-CD8A30DB83D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Verschönerung des gesamten Projekts</t>
+  </si>
+  <si>
+    <t>Hochladen der Files (sowie löschen)</t>
+  </si>
+  <si>
+    <t>Newspage bearbeiten</t>
+  </si>
+  <si>
+    <t>Listen und herunterladen der Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler und Bugbearbeitung der Verwaltung </t>
   </si>
 </sst>
 </file>
@@ -183,12 +195,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -200,7 +221,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,12 +660,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
         <f>SUM(C11:C16)</f>
         <v>36.5</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
@@ -697,148 +719,182 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
-        <f>SUM(C19:C24)</f>
-        <v>34</v>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <f>SUM(C19:C28)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="3">
-        <f>SUM(C27:C42)</f>
+      <c r="C50" s="4">
+        <f>SUM(C34:C49)</f>
         <v>62</v>
       </c>
     </row>
+    <row r="51" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
+++ b/Protokolle/Zeitplan_Arbeitsverwaltung_Sprint_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A23044-AAFE-497E-8A97-CD8A30DB83D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD59572-0DA0-4399-854F-9549A202501C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{614CBF75-28EE-46ED-A2AB-BC83D877B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B796A2F-81B7-4E93-BA9A-E7E2D4BA1D28}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
       </c>
       <c r="C50" s="4">
         <f>SUM(C34:C49)</f>
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
